--- a/musings/weaponUpgrades.xlsx
+++ b/musings/weaponUpgrades.xlsx
@@ -371,7 +371,7 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -468,10 +468,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N3">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -483,7 +483,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B3:B51" si="2">(A4+1) ^C4</f>
+        <f t="shared" ref="B4:B51" si="2">(A4+1) ^C4</f>
         <v>65536</v>
       </c>
       <c r="C4">
@@ -507,19 +507,19 @@
       </c>
       <c r="L4">
         <f>(L3+1)^(M3*1.66)</f>
-        <v>995.99866615017925</v>
+        <v>9946.6844929642211</v>
       </c>
       <c r="M4">
         <f>M3^(L3*3)</f>
-        <v>216</v>
+        <v>512</v>
       </c>
       <c r="N4">
         <f>((N3+3)*1.77)^(2*L3)</f>
-        <v>3.1329000000000002</v>
+        <v>78.322499999999991</v>
       </c>
       <c r="O4">
         <f>(L3+M3+O3+1)*(2^O3)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:15">
